--- a/Code/Results/Cases/Case_6_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_24/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.393266220706721</v>
+        <v>1.139714507642253</v>
       </c>
       <c r="C2">
-        <v>0.2529438929541072</v>
+        <v>0.06342899345300523</v>
       </c>
       <c r="D2">
-        <v>0.3902507562473971</v>
+        <v>0.4548921717272805</v>
       </c>
       <c r="E2">
-        <v>0.04485495538606266</v>
+        <v>0.06917855777971837</v>
       </c>
       <c r="F2">
-        <v>6.690673992154757</v>
+        <v>6.975788481389827</v>
       </c>
       <c r="G2">
-        <v>0.0008145494640659436</v>
+        <v>0.0008526683237140074</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5251655611062276</v>
+        <v>0.8520606128982138</v>
       </c>
       <c r="L2">
-        <v>0.292016439065776</v>
+        <v>0.2425466164022367</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.07385942380489</v>
+        <v>1.002073492496095</v>
       </c>
       <c r="C3">
-        <v>0.2177615835730506</v>
+        <v>0.05707916164982052</v>
       </c>
       <c r="D3">
-        <v>0.3538376979702775</v>
+        <v>0.4172833673138427</v>
       </c>
       <c r="E3">
-        <v>0.04194581430907363</v>
+        <v>0.06325670945480155</v>
       </c>
       <c r="F3">
-        <v>5.939471121752376</v>
+        <v>6.262273292794021</v>
       </c>
       <c r="G3">
-        <v>0.0008256344006311449</v>
+        <v>0.0008616547471079717</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4510699459384568</v>
+        <v>0.7376938714203334</v>
       </c>
       <c r="L3">
-        <v>0.2562784366026989</v>
+        <v>0.2145349067435802</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.883829192960405</v>
+        <v>0.9202596816446658</v>
       </c>
       <c r="C4">
-        <v>0.1967130511782926</v>
+        <v>0.0532620999965232</v>
       </c>
       <c r="D4">
-        <v>0.3319767786304055</v>
+        <v>0.3944635733784168</v>
       </c>
       <c r="E4">
-        <v>0.04021425908983467</v>
+        <v>0.05970645772485028</v>
       </c>
       <c r="F4">
-        <v>5.489231578328855</v>
+        <v>5.831186285932375</v>
       </c>
       <c r="G4">
-        <v>0.0008325792225988413</v>
+        <v>0.0008673058180521664</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.406941079498317</v>
+        <v>0.6696810693133557</v>
       </c>
       <c r="L4">
-        <v>0.2349833949458855</v>
+        <v>0.1977813876650174</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.807727006042683</v>
+        <v>0.8875286171903838</v>
       </c>
       <c r="C5">
-        <v>0.1882495487620304</v>
+        <v>0.05172231989515552</v>
       </c>
       <c r="D5">
-        <v>0.3231723992777376</v>
+        <v>0.3852182818180694</v>
       </c>
       <c r="E5">
-        <v>0.03952079085780369</v>
+        <v>0.05827909329322978</v>
       </c>
       <c r="F5">
-        <v>5.308120010075356</v>
+        <v>5.65702101570119</v>
       </c>
       <c r="G5">
-        <v>0.000835447377022458</v>
+        <v>0.0008696441368020846</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3892553808914627</v>
+        <v>0.6424584315778219</v>
       </c>
       <c r="L5">
-        <v>0.2264484606269548</v>
+        <v>0.1910542703492695</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.79516575155759</v>
+        <v>0.8821284906412927</v>
       </c>
       <c r="C6">
-        <v>0.1868503888031654</v>
+        <v>0.05146745583701318</v>
       </c>
       <c r="D6">
-        <v>0.3217161591147857</v>
+        <v>0.3836859665078833</v>
       </c>
       <c r="E6">
-        <v>0.03940633157522733</v>
+        <v>0.05804319143273062</v>
       </c>
       <c r="F6">
-        <v>5.278178423529795</v>
+        <v>5.628184854111453</v>
       </c>
       <c r="G6">
-        <v>0.0008359260201844808</v>
+        <v>0.0008700346079011378</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3863353724701852</v>
+        <v>0.6379662012807188</v>
       </c>
       <c r="L6">
-        <v>0.2250393297780136</v>
+        <v>0.1899429502396259</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.882797681255596</v>
+        <v>0.9198158821056097</v>
       </c>
       <c r="C7">
-        <v>0.1965984793423985</v>
+        <v>0.05324127648188437</v>
       </c>
       <c r="D7">
-        <v>0.3318576440686911</v>
+        <v>0.3943386879322617</v>
       </c>
       <c r="E7">
-        <v>0.04020485950895392</v>
+        <v>0.059687132021363</v>
       </c>
       <c r="F7">
-        <v>5.486779970972066</v>
+        <v>5.828831658424718</v>
       </c>
       <c r="G7">
-        <v>0.0008326177452430832</v>
+        <v>0.0008673372074812369</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4067014183439639</v>
+        <v>0.6693120169148017</v>
       </c>
       <c r="L7">
-        <v>0.234867735930294</v>
+        <v>0.1976902733314603</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.281747794898877</v>
+        <v>1.091651806927331</v>
       </c>
       <c r="C8">
-        <v>0.2406819886569593</v>
+        <v>0.06121952672988584</v>
       </c>
       <c r="D8">
-        <v>0.3775791801734982</v>
+        <v>0.4418590590489799</v>
       </c>
       <c r="E8">
-        <v>0.04383952490275256</v>
+        <v>0.06711752726854314</v>
       </c>
       <c r="F8">
-        <v>6.42912017326546</v>
+        <v>6.728150408425506</v>
       </c>
       <c r="G8">
-        <v>0.0008183448267034479</v>
+        <v>0.0008557403707751874</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4993042735842508</v>
+        <v>0.8121291778274724</v>
       </c>
       <c r="L8">
-        <v>0.2795466809453018</v>
+        <v>0.2327880811069321</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.12243829331851</v>
+        <v>1.453553866814389</v>
       </c>
       <c r="C9">
-        <v>0.3328421922624472</v>
+        <v>0.07776061782074706</v>
       </c>
       <c r="D9">
-        <v>0.4722528681943743</v>
+        <v>0.5379314054425777</v>
       </c>
       <c r="E9">
-        <v>0.0514827838467351</v>
+        <v>0.08247859538930769</v>
       </c>
       <c r="F9">
-        <v>8.385053053093174</v>
+        <v>8.560311825411389</v>
       </c>
       <c r="G9">
-        <v>0.0007912898684117522</v>
+        <v>0.0008339610083061842</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6941454878259776</v>
+        <v>1.112867818956857</v>
       </c>
       <c r="L9">
-        <v>0.3733398909409118</v>
+        <v>0.3057568899532157</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.79213697830437</v>
+        <v>1.740211504203359</v>
       </c>
       <c r="C10">
-        <v>0.4062219390707753</v>
+        <v>0.09085433832178325</v>
       </c>
       <c r="D10">
-        <v>0.5466090032010982</v>
+        <v>0.6114124428996206</v>
       </c>
       <c r="E10">
-        <v>0.05754562552844789</v>
+        <v>0.09441770296145435</v>
       </c>
       <c r="F10">
-        <v>9.921615044937113</v>
+        <v>9.968574606476068</v>
       </c>
       <c r="G10">
-        <v>0.00077171302986658</v>
+        <v>0.0008183955021492333</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8493240743585346</v>
+        <v>1.351411364951161</v>
       </c>
       <c r="L10">
-        <v>0.4477018540902122</v>
+        <v>0.3628455314098886</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.112651288542338</v>
+        <v>1.876587835155902</v>
       </c>
       <c r="C11">
-        <v>0.4414493185399238</v>
+        <v>0.09712070319971389</v>
       </c>
       <c r="D11">
-        <v>0.5819549590970041</v>
+        <v>0.6457646686482406</v>
       </c>
       <c r="E11">
-        <v>0.0604371793674332</v>
+        <v>0.1000353879751863</v>
       </c>
       <c r="F11">
-        <v>10.65147449281807</v>
+        <v>10.62801327072361</v>
       </c>
       <c r="G11">
-        <v>0.0007627987634353597</v>
+        <v>0.0008113700375433708</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9236262488190903</v>
+        <v>1.46506122017621</v>
       </c>
       <c r="L11">
-        <v>0.4831772059100956</v>
+        <v>0.3898202874087957</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.236770971339013</v>
+        <v>1.929231612093361</v>
       </c>
       <c r="C12">
-        <v>0.4551185905025363</v>
+        <v>0.09954867185779648</v>
       </c>
       <c r="D12">
-        <v>0.5956070226206691</v>
+        <v>0.6589345471262789</v>
       </c>
       <c r="E12">
-        <v>0.0615550281854631</v>
+        <v>0.1021937645677369</v>
       </c>
       <c r="F12">
-        <v>10.93323349019425</v>
+        <v>10.88094210742332</v>
       </c>
       <c r="G12">
-        <v>0.0007594144295318778</v>
+        <v>0.0008087138807555598</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9524091091065969</v>
+        <v>1.508964349186556</v>
       </c>
       <c r="L12">
-        <v>0.4968949613707565</v>
+        <v>0.4002035463938256</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.209908964108081</v>
+        <v>1.917846828483164</v>
       </c>
       <c r="C13">
-        <v>0.4521588580121545</v>
+        <v>0.09902313319715006</v>
       </c>
       <c r="D13">
-        <v>0.5926540450509208</v>
+        <v>0.6560905038323881</v>
       </c>
       <c r="E13">
-        <v>0.06131319595435869</v>
+        <v>0.1017274630821419</v>
       </c>
       <c r="F13">
-        <v>10.87229567222153</v>
+        <v>10.82631756179848</v>
       </c>
       <c r="G13">
-        <v>0.0007601438269389919</v>
+        <v>0.0008092858080197009</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9461794319696537</v>
+        <v>1.499468248954571</v>
       </c>
       <c r="L13">
-        <v>0.4939271210482872</v>
+        <v>0.3979594123661059</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.122804625046683</v>
+        <v>1.8808979214229</v>
       </c>
       <c r="C14">
-        <v>0.4425668828991718</v>
+        <v>0.09731928483351737</v>
       </c>
       <c r="D14">
-        <v>0.5830724542289261</v>
+        <v>0.6468447504286132</v>
       </c>
       <c r="E14">
-        <v>0.06052866342575669</v>
+        <v>0.1002123095196161</v>
       </c>
       <c r="F14">
-        <v>10.67454121243338</v>
+        <v>10.6487543039583</v>
       </c>
       <c r="G14">
-        <v>0.0007625205543859173</v>
+        <v>0.0008111514522558591</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9259805567144781</v>
+        <v>1.468654992315635</v>
       </c>
       <c r="L14">
-        <v>0.4842997808399758</v>
+        <v>0.390670997576521</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.069823923934678</v>
+        <v>1.858400575793155</v>
       </c>
       <c r="C15">
-        <v>0.4367365399815526</v>
+        <v>0.09628313414311407</v>
       </c>
       <c r="D15">
-        <v>0.5772398625301776</v>
+        <v>0.6412033924490004</v>
       </c>
       <c r="E15">
-        <v>0.06005121489479848</v>
+        <v>0.09928841823955281</v>
       </c>
       <c r="F15">
-        <v>10.55414195459701</v>
+        <v>10.54042650279013</v>
       </c>
       <c r="G15">
-        <v>0.0007639749914863283</v>
+        <v>0.0008122946451375921</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9136960374483891</v>
+        <v>1.449897933807961</v>
       </c>
       <c r="L15">
-        <v>0.4784412897385693</v>
+        <v>0.3862293478888432</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.77154777202378</v>
+        <v>1.731430882381176</v>
       </c>
       <c r="C16">
-        <v>0.4039620812908424</v>
+        <v>0.09045191121909113</v>
       </c>
       <c r="D16">
-        <v>0.544333623347427</v>
+        <v>0.6091884024774004</v>
       </c>
       <c r="E16">
-        <v>0.05735964234922619</v>
+        <v>0.09405467855168226</v>
       </c>
       <c r="F16">
-        <v>9.874614547884136</v>
+        <v>9.925899193639935</v>
       </c>
       <c r="G16">
-        <v>0.0007722948175960079</v>
+        <v>0.0008188554396062289</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8445520700097262</v>
+        <v>1.344097931560412</v>
       </c>
       <c r="L16">
-        <v>0.4454204435908764</v>
+        <v>0.3611048645789197</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.592933849285373</v>
+        <v>1.655164014812584</v>
       </c>
       <c r="C17">
-        <v>0.3843705818000558</v>
+        <v>0.08696097729330887</v>
       </c>
       <c r="D17">
-        <v>0.5245681651383336</v>
+        <v>0.5898042468921005</v>
       </c>
       <c r="E17">
-        <v>0.05574506852005356</v>
+        <v>0.09089457716857297</v>
       </c>
       <c r="F17">
-        <v>9.466268729953185</v>
+        <v>9.554065439098281</v>
       </c>
       <c r="G17">
-        <v>0.0007773916534420868</v>
+        <v>0.0008228919579002727</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8031585523938247</v>
+        <v>1.280593653996448</v>
       </c>
       <c r="L17">
-        <v>0.4256161339013858</v>
+        <v>0.3459652306546985</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.491660631944114</v>
+        <v>1.611850061530248</v>
       </c>
       <c r="C18">
-        <v>0.3732713912125689</v>
+        <v>0.0849815454868974</v>
       </c>
       <c r="D18">
-        <v>0.5133393838758593</v>
+        <v>0.5787401805579862</v>
       </c>
       <c r="E18">
-        <v>0.05482872267967664</v>
+        <v>0.08909424079504191</v>
       </c>
       <c r="F18">
-        <v>9.234239523405677</v>
+        <v>9.341933013206017</v>
       </c>
       <c r="G18">
-        <v>0.0007803229200026845</v>
+        <v>0.0008252191183494163</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7796914993009381</v>
+        <v>1.244542351328647</v>
       </c>
       <c r="L18">
-        <v>0.4143770420674429</v>
+        <v>0.3373502749727635</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.457609317870094</v>
+        <v>1.597275632620097</v>
       </c>
       <c r="C19">
-        <v>0.3695407304155651</v>
+        <v>0.08431593937363147</v>
       </c>
       <c r="D19">
-        <v>0.5095601790923752</v>
+        <v>0.575007905841062</v>
       </c>
       <c r="E19">
-        <v>0.05452047707169605</v>
+        <v>0.08848752338601429</v>
       </c>
       <c r="F19">
-        <v>9.156140388798235</v>
+        <v>9.270392484563644</v>
       </c>
       <c r="G19">
-        <v>0.0007813155506824823</v>
+        <v>0.0008260080982280178</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.771801499405413</v>
+        <v>1.232413923420495</v>
       </c>
       <c r="L19">
-        <v>0.4105964557533213</v>
+        <v>0.334448686952399</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.611793316300918</v>
+        <v>1.663224583566546</v>
       </c>
       <c r="C20">
-        <v>0.3864381833051169</v>
+        <v>0.08732957694973464</v>
       </c>
       <c r="D20">
-        <v>0.5266574402504887</v>
+        <v>0.5918587134667064</v>
       </c>
       <c r="E20">
-        <v>0.05591564360934598</v>
+        <v>0.09122915889619421</v>
       </c>
       <c r="F20">
-        <v>9.50943759886195</v>
+        <v>9.593464591318508</v>
       </c>
       <c r="G20">
-        <v>0.0007768491671005461</v>
+        <v>0.000822461723663837</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8075288802701124</v>
+        <v>1.287303797226798</v>
       </c>
       <c r="L20">
-        <v>0.4277083093834193</v>
+        <v>0.3475670860437816</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.148310539015426</v>
+        <v>1.891722309305663</v>
       </c>
       <c r="C21">
-        <v>0.4453747636420076</v>
+        <v>0.09781816115659581</v>
       </c>
       <c r="D21">
-        <v>0.5858791121074773</v>
+        <v>0.6495558251974103</v>
       </c>
       <c r="E21">
-        <v>0.06075844600349711</v>
+        <v>0.1006564664598955</v>
       </c>
       <c r="F21">
-        <v>10.7324722112279</v>
+        <v>10.70081731082126</v>
       </c>
       <c r="G21">
-        <v>0.000761822754035449</v>
+        <v>0.0008106033846811168</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9318949100256475</v>
+        <v>1.477680964509887</v>
       </c>
       <c r="L21">
-        <v>0.487119437066255</v>
+        <v>0.3928070001631738</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.515258145033386</v>
+        <v>2.046975081911853</v>
       </c>
       <c r="C22">
-        <v>0.4858531534503072</v>
+        <v>0.104999952803297</v>
       </c>
       <c r="D22">
-        <v>0.6261716095407621</v>
+        <v>0.6882213528525085</v>
       </c>
       <c r="E22">
-        <v>0.06405908916714864</v>
+        <v>0.1070013404320527</v>
       </c>
       <c r="F22">
-        <v>11.56370803686502</v>
+        <v>11.44355819022451</v>
       </c>
       <c r="G22">
-        <v>0.0007519469112151352</v>
+        <v>0.0008028758295274309</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.01701133514544</v>
+        <v>1.607227267438759</v>
       </c>
       <c r="L22">
-        <v>0.5276321105888968</v>
+        <v>0.4233697998363795</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.317740836667838</v>
+        <v>1.963519904213058</v>
       </c>
       <c r="C23">
-        <v>0.4640450415017767</v>
+        <v>0.1011330749703063</v>
       </c>
       <c r="D23">
-        <v>0.6045029154923611</v>
+        <v>0.6674868123897397</v>
       </c>
       <c r="E23">
-        <v>0.0622836664943982</v>
+        <v>0.1035965986272167</v>
       </c>
       <c r="F23">
-        <v>11.11678398589953</v>
+        <v>11.04521565898381</v>
       </c>
       <c r="G23">
-        <v>0.0007572257300137137</v>
+        <v>0.0008069994796890689</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9711888518600631</v>
+        <v>1.537569708484625</v>
       </c>
       <c r="L23">
-        <v>0.5058376754411711</v>
+        <v>0.4069578765071498</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.603262579990542</v>
+        <v>1.659578751067784</v>
       </c>
       <c r="C24">
-        <v>0.385502913779348</v>
+        <v>0.08716284799321272</v>
       </c>
       <c r="D24">
-        <v>0.5257124631194756</v>
+        <v>0.5909296415921972</v>
       </c>
       <c r="E24">
-        <v>0.05583848983096118</v>
+        <v>0.09107784357923521</v>
       </c>
       <c r="F24">
-        <v>9.489912505090501</v>
+        <v>9.575647164633693</v>
       </c>
       <c r="G24">
-        <v>0.00077709442128318</v>
+        <v>0.0008226562120711003</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8055520333915496</v>
+        <v>1.284268723849124</v>
       </c>
       <c r="L24">
-        <v>0.4267619834313621</v>
+        <v>0.3468426117089791</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.887216495991481</v>
+        <v>1.352447112625526</v>
       </c>
       <c r="C25">
-        <v>0.3070949285055349</v>
+        <v>0.07315237083421877</v>
       </c>
       <c r="D25">
-        <v>0.4459401734045656</v>
+        <v>0.5115229227564839</v>
       </c>
       <c r="E25">
-        <v>0.0493473266124731</v>
+        <v>0.07822190491003767</v>
       </c>
       <c r="F25">
-        <v>7.841183912079799</v>
+        <v>8.055362304904747</v>
       </c>
       <c r="G25">
-        <v>0.0007985343216117394</v>
+        <v>0.0008397644315873905</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6396470565365817</v>
+        <v>1.028819556319235</v>
       </c>
       <c r="L25">
-        <v>0.347146241978308</v>
+        <v>0.2854819178350283</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.139714507642253</v>
+        <v>1.075553761529136</v>
       </c>
       <c r="C2">
-        <v>0.06342899345300523</v>
+        <v>0.1240395786291373</v>
       </c>
       <c r="D2">
-        <v>0.4548921717272805</v>
+        <v>0.06353318263812113</v>
       </c>
       <c r="E2">
-        <v>0.06917855777971837</v>
+        <v>0.05821273897776891</v>
       </c>
       <c r="F2">
-        <v>6.975788481389827</v>
+        <v>0.9490264581380927</v>
       </c>
       <c r="G2">
-        <v>0.0008526683237140074</v>
+        <v>0.8900616106939907</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.009221718444288207</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6292972777767858</v>
       </c>
       <c r="K2">
-        <v>0.8520606128982138</v>
+        <v>0.7058808754133352</v>
       </c>
       <c r="L2">
-        <v>0.2425466164022367</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9899534094260503</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.265113616921937</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.002073492496095</v>
+        <v>0.9354410533791224</v>
       </c>
       <c r="C3">
-        <v>0.05707916164982052</v>
+        <v>0.1124856826683569</v>
       </c>
       <c r="D3">
-        <v>0.4172833673138427</v>
+        <v>0.06109885820131566</v>
       </c>
       <c r="E3">
-        <v>0.06325670945480155</v>
+        <v>0.05416282919938098</v>
       </c>
       <c r="F3">
-        <v>6.262273292794021</v>
+        <v>0.8990054942023562</v>
       </c>
       <c r="G3">
-        <v>0.0008616547471079717</v>
+        <v>0.848273068491963</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01296378498556772</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6156653293671326</v>
       </c>
       <c r="K3">
-        <v>0.7376938714203334</v>
+        <v>0.6891646550731707</v>
       </c>
       <c r="L3">
-        <v>0.2145349067435802</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8604730906850477</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2343538627160768</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9202596816446658</v>
+        <v>0.8494834780703968</v>
       </c>
       <c r="C4">
-        <v>0.0532620999965232</v>
+        <v>0.1054777540892005</v>
       </c>
       <c r="D4">
-        <v>0.3944635733784168</v>
+        <v>0.05959982537053321</v>
       </c>
       <c r="E4">
-        <v>0.05970645772485028</v>
+        <v>0.05170476311517191</v>
       </c>
       <c r="F4">
-        <v>5.831186285932375</v>
+        <v>0.8690061415188381</v>
       </c>
       <c r="G4">
-        <v>0.0008673058180521664</v>
+        <v>0.8232414713695704</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01571585191884584</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6077053465763953</v>
       </c>
       <c r="K4">
-        <v>0.6696810693133557</v>
+        <v>0.679220276012849</v>
       </c>
       <c r="L4">
-        <v>0.1977813876650174</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7812689347234141</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2157614170315867</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8875286171903838</v>
+        <v>0.8141707070315931</v>
       </c>
       <c r="C5">
-        <v>0.05172231989515552</v>
+        <v>0.1028400862678041</v>
       </c>
       <c r="D5">
-        <v>0.3852182818180694</v>
+        <v>0.05904265122880403</v>
       </c>
       <c r="E5">
-        <v>0.05827909329322978</v>
+        <v>0.05065829148102807</v>
       </c>
       <c r="F5">
-        <v>5.65702101570119</v>
+        <v>0.8557543466533986</v>
       </c>
       <c r="G5">
-        <v>0.0008696441368020846</v>
+        <v>0.8118623271528804</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01703979845981696</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6038795897348876</v>
       </c>
       <c r="K5">
-        <v>0.6424584315778219</v>
+        <v>0.6742211429914988</v>
       </c>
       <c r="L5">
-        <v>0.1910542703492695</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7493603219495526</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2083216037089812</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8821284906412927</v>
+        <v>0.8079498985738383</v>
       </c>
       <c r="C6">
-        <v>0.05146745583701318</v>
+        <v>0.1026488522101801</v>
       </c>
       <c r="D6">
-        <v>0.3836859665078833</v>
+        <v>0.05901782788710719</v>
       </c>
       <c r="E6">
-        <v>0.05804319143273062</v>
+        <v>0.05042194735199246</v>
       </c>
       <c r="F6">
-        <v>5.628184854111453</v>
+        <v>0.8521043880100265</v>
       </c>
       <c r="G6">
-        <v>0.0008700346079011378</v>
+        <v>0.8083630110407256</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01738711796616954</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.60241919720103</v>
       </c>
       <c r="K6">
-        <v>0.6379662012807188</v>
+        <v>0.6721473395744439</v>
       </c>
       <c r="L6">
-        <v>0.1899429502396259</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7444409692684815</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2071741229274835</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9198158821056097</v>
+        <v>0.848025836400609</v>
       </c>
       <c r="C7">
-        <v>0.05324127648188437</v>
+        <v>0.1061149036914912</v>
       </c>
       <c r="D7">
-        <v>0.3943386879322617</v>
+        <v>0.05977889297232153</v>
       </c>
       <c r="E7">
-        <v>0.059687132021363</v>
+        <v>0.05151835358791423</v>
       </c>
       <c r="F7">
-        <v>5.828831658424718</v>
+        <v>0.8648394211723129</v>
       </c>
       <c r="G7">
-        <v>0.0008673372074812369</v>
+        <v>0.8186654751833942</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01604464196303645</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6053854570132557</v>
       </c>
       <c r="K7">
-        <v>0.6693120169148017</v>
+        <v>0.6757436821725946</v>
       </c>
       <c r="L7">
-        <v>0.1976902733314603</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7818660894314178</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.215890125520886</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.091651806927331</v>
+        <v>1.025898624464588</v>
       </c>
       <c r="C8">
-        <v>0.06121952672988584</v>
+        <v>0.1209378021073348</v>
       </c>
       <c r="D8">
-        <v>0.4418590590489799</v>
+        <v>0.06294903550370634</v>
       </c>
       <c r="E8">
-        <v>0.06711752726854314</v>
+        <v>0.05658105231445987</v>
       </c>
       <c r="F8">
-        <v>6.728150408425506</v>
+        <v>0.926346209567896</v>
       </c>
       <c r="G8">
-        <v>0.0008557403707751874</v>
+        <v>0.8696657123170866</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01078052053984813</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6215184596893266</v>
       </c>
       <c r="K8">
-        <v>0.8121291778274724</v>
+        <v>0.6955470719132464</v>
       </c>
       <c r="L8">
-        <v>0.2327880811069321</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9466047240830164</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2547467999173989</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.453553866814389</v>
+        <v>1.377608244342582</v>
       </c>
       <c r="C9">
-        <v>0.07776061782074706</v>
+        <v>0.1496280507058003</v>
       </c>
       <c r="D9">
-        <v>0.5379314054425777</v>
+        <v>0.06879717301438859</v>
       </c>
       <c r="E9">
-        <v>0.08247859538930769</v>
+        <v>0.06707016094093277</v>
       </c>
       <c r="F9">
-        <v>8.560311825411389</v>
+        <v>1.060363732504356</v>
       </c>
       <c r="G9">
-        <v>0.0008339610083061842</v>
+        <v>0.9831305389073464</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003837015804588617</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6606968509669855</v>
       </c>
       <c r="K9">
-        <v>1.112867818956857</v>
+        <v>0.7432453994653443</v>
       </c>
       <c r="L9">
-        <v>0.3057568899532157</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.270839547743293</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3331449787442722</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.740211504203359</v>
+        <v>1.63697654946003</v>
       </c>
       <c r="C10">
-        <v>0.09085433832178325</v>
+        <v>0.1718152657982444</v>
       </c>
       <c r="D10">
-        <v>0.6114124428996206</v>
+        <v>0.07320336269975769</v>
       </c>
       <c r="E10">
-        <v>0.09441770296145435</v>
+        <v>0.07487907993440501</v>
       </c>
       <c r="F10">
-        <v>9.968574606476068</v>
+        <v>1.161574238490473</v>
       </c>
       <c r="G10">
-        <v>0.0008183955021492333</v>
+        <v>1.06854130259461</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001556069312929509</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6908808518390401</v>
       </c>
       <c r="K10">
-        <v>1.351411364951161</v>
+        <v>0.7786848426704225</v>
       </c>
       <c r="L10">
-        <v>0.3628455314098886</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.512441247911198</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3928626455234223</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.876587835155902</v>
+        <v>1.753754294745306</v>
       </c>
       <c r="C11">
-        <v>0.09712070319971389</v>
+        <v>0.1833021340764702</v>
       </c>
       <c r="D11">
-        <v>0.6457646686482406</v>
+        <v>0.0755604659019653</v>
       </c>
       <c r="E11">
-        <v>0.1000353879751863</v>
+        <v>0.07819396838374715</v>
       </c>
       <c r="F11">
-        <v>10.62801327072361</v>
+        <v>1.202343001160642</v>
       </c>
       <c r="G11">
-        <v>0.0008113700375433708</v>
+        <v>1.101316616012227</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001589290353492423</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7015972282270866</v>
       </c>
       <c r="K11">
-        <v>1.46506122017621</v>
+        <v>0.7898418842823389</v>
       </c>
       <c r="L11">
-        <v>0.3898202874087957</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.62492475229439</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4209382159104109</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.929231612093361</v>
+        <v>1.798979056380631</v>
       </c>
       <c r="C12">
-        <v>0.09954867185779648</v>
+        <v>0.1870713562889392</v>
       </c>
       <c r="D12">
-        <v>0.6589345471262789</v>
+        <v>0.07627313678121794</v>
       </c>
       <c r="E12">
-        <v>0.1021937645677369</v>
+        <v>0.07960948078648045</v>
       </c>
       <c r="F12">
-        <v>10.88094210742332</v>
+        <v>1.22144395304899</v>
       </c>
       <c r="G12">
-        <v>0.0008087138807555598</v>
+        <v>1.117740641563927</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001485484392006242</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7076993630763297</v>
       </c>
       <c r="K12">
-        <v>1.508964349186556</v>
+        <v>0.7970837549325509</v>
       </c>
       <c r="L12">
-        <v>0.4002035463938256</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.666760551031786</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.431455571959134</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.917846828483164</v>
+        <v>1.789419559705209</v>
       </c>
       <c r="C13">
-        <v>0.09902313319715006</v>
+        <v>0.1861325318556624</v>
       </c>
       <c r="D13">
-        <v>0.6560905038323881</v>
+        <v>0.07608261126492266</v>
       </c>
       <c r="E13">
-        <v>0.1017274630821419</v>
+        <v>0.07933495696862991</v>
       </c>
       <c r="F13">
-        <v>10.82631756179848</v>
+        <v>1.218017684509888</v>
       </c>
       <c r="G13">
-        <v>0.0008092858080197009</v>
+        <v>1.114965220901695</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001457175330558336</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7067709811765042</v>
       </c>
       <c r="K13">
-        <v>1.499468248954571</v>
+        <v>0.7961085029954091</v>
       </c>
       <c r="L13">
-        <v>0.3979594123661059</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.657561195976683</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.4291463780292162</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.8808979214229</v>
+        <v>1.757551389240518</v>
       </c>
       <c r="C14">
-        <v>0.09731928483351737</v>
+        <v>0.1835582384258601</v>
       </c>
       <c r="D14">
-        <v>0.6468447504286132</v>
+        <v>0.07560338699776281</v>
       </c>
       <c r="E14">
-        <v>0.1002123095196161</v>
+        <v>0.0783232915452281</v>
       </c>
       <c r="F14">
-        <v>10.6487543039583</v>
+        <v>1.204206188814979</v>
       </c>
       <c r="G14">
-        <v>0.0008111514522558591</v>
+        <v>1.102991155512782</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00155871498319371</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7022630434771884</v>
       </c>
       <c r="K14">
-        <v>1.468654992315635</v>
+        <v>0.7906857945559267</v>
       </c>
       <c r="L14">
-        <v>0.390670997576521</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.628286051510486</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.4217846592180337</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.858400575793155</v>
+        <v>1.737681140777056</v>
       </c>
       <c r="C15">
-        <v>0.09628313414311407</v>
+        <v>0.1822331943598243</v>
       </c>
       <c r="D15">
-        <v>0.6412033924490004</v>
+        <v>0.07538267569712076</v>
       </c>
       <c r="E15">
-        <v>0.09928841823955281</v>
+        <v>0.07764432018069201</v>
       </c>
       <c r="F15">
-        <v>10.54042650279013</v>
+        <v>1.194402239863678</v>
       </c>
       <c r="G15">
-        <v>0.0008122946451375921</v>
+        <v>1.094165808886871</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001730165743547118</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6987466335512238</v>
       </c>
       <c r="K15">
-        <v>1.449897933807961</v>
+        <v>0.7862181735867821</v>
       </c>
       <c r="L15">
-        <v>0.3862293478888432</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.610733205662314</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.417365905330314</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.731430882381176</v>
+        <v>1.626317239422406</v>
       </c>
       <c r="C16">
-        <v>0.09045191121909113</v>
+        <v>0.173133932370277</v>
       </c>
       <c r="D16">
-        <v>0.6091884024774004</v>
+        <v>0.07365462908314413</v>
       </c>
       <c r="E16">
-        <v>0.09405467855168226</v>
+        <v>0.07415530826808947</v>
       </c>
       <c r="F16">
-        <v>9.925899193639935</v>
+        <v>1.147375537888934</v>
       </c>
       <c r="G16">
-        <v>0.0008188554396062289</v>
+        <v>1.053636551225736</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.00233217986481371</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6837041111609068</v>
       </c>
       <c r="K16">
-        <v>1.344097931560412</v>
+        <v>0.7681877334331588</v>
       </c>
       <c r="L16">
-        <v>0.3611048645789197</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.508134504319344</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.3917061818139302</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.655164014812584</v>
+        <v>1.558161203643635</v>
       </c>
       <c r="C17">
-        <v>0.08696097729330887</v>
+        <v>0.1676029439686459</v>
       </c>
       <c r="D17">
-        <v>0.5898042468921005</v>
+        <v>0.07259322367204391</v>
       </c>
       <c r="E17">
-        <v>0.09089457716857297</v>
+        <v>0.0720306432140454</v>
       </c>
       <c r="F17">
-        <v>9.554065439098281</v>
+        <v>1.118911202745167</v>
       </c>
       <c r="G17">
-        <v>0.0008228919579002727</v>
+        <v>1.029133211936227</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002885480855830735</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6746731265651249</v>
       </c>
       <c r="K17">
-        <v>1.280593653996448</v>
+        <v>0.7573150561204898</v>
       </c>
       <c r="L17">
-        <v>0.3459652306546985</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.445418132902887</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.3761047176821819</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.611850061530248</v>
+        <v>1.519927015146379</v>
       </c>
       <c r="C18">
-        <v>0.0849815454868974</v>
+        <v>0.1638114039932361</v>
       </c>
       <c r="D18">
-        <v>0.5787401805579862</v>
+        <v>0.07179902795159165</v>
       </c>
       <c r="E18">
-        <v>0.08909424079504191</v>
+        <v>0.07096740923512712</v>
       </c>
       <c r="F18">
-        <v>9.341933013206017</v>
+        <v>1.106164216303924</v>
       </c>
       <c r="G18">
-        <v>0.0008252191183494163</v>
+        <v>1.019023893084054</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002995097034285799</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6715090730786812</v>
       </c>
       <c r="K18">
-        <v>1.244542351328647</v>
+        <v>0.7540775930902655</v>
       </c>
       <c r="L18">
-        <v>0.3373502749727635</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.40850445308709</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.36697765101529</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.597275632620097</v>
+        <v>1.506285521218246</v>
       </c>
       <c r="C19">
-        <v>0.08431593937363147</v>
+        <v>0.1630141838040089</v>
       </c>
       <c r="D19">
-        <v>0.575007905841062</v>
+        <v>0.07167122138081794</v>
       </c>
       <c r="E19">
-        <v>0.08848752338601429</v>
+        <v>0.07049005424517318</v>
       </c>
       <c r="F19">
-        <v>9.270392484563644</v>
+        <v>1.099177919930369</v>
       </c>
       <c r="G19">
-        <v>0.0008260080982280178</v>
+        <v>1.012644731451417</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003250756319712167</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6689366186141825</v>
       </c>
       <c r="K19">
-        <v>1.232413923420495</v>
+        <v>0.7507160391995313</v>
       </c>
       <c r="L19">
-        <v>0.334448686952399</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.396725662478275</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3640514880325298</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.663224583566546</v>
+        <v>1.565482685831711</v>
       </c>
       <c r="C20">
-        <v>0.08732957694973464</v>
+        <v>0.1681405224566959</v>
       </c>
       <c r="D20">
-        <v>0.5918587134667064</v>
+        <v>0.07269182665476137</v>
       </c>
       <c r="E20">
-        <v>0.09122915889619421</v>
+        <v>0.07226827966089289</v>
       </c>
       <c r="F20">
-        <v>9.593464591318508</v>
+        <v>1.122201044262411</v>
       </c>
       <c r="G20">
-        <v>0.000822461723663837</v>
+        <v>1.032031183812805</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.00279819333065312</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6757809997662605</v>
       </c>
       <c r="K20">
-        <v>1.287303797226798</v>
+        <v>0.758696907740493</v>
       </c>
       <c r="L20">
-        <v>0.3475670860437816</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.452014402220783</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3777445435617892</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.891722309305663</v>
+        <v>1.765873708281276</v>
       </c>
       <c r="C21">
-        <v>0.09781816115659581</v>
+        <v>0.1850176165091</v>
       </c>
       <c r="D21">
-        <v>0.6495558251974103</v>
+        <v>0.07595180586419303</v>
       </c>
       <c r="E21">
-        <v>0.1006564664598955</v>
+        <v>0.07844818152053179</v>
       </c>
       <c r="F21">
-        <v>10.70081731082126</v>
+        <v>1.204353588676014</v>
       </c>
       <c r="G21">
-        <v>0.0008106033846811168</v>
+        <v>1.102188094198127</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001796627418315211</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7013965614154642</v>
       </c>
       <c r="K21">
-        <v>1.477680964509887</v>
+        <v>0.7889802164794659</v>
       </c>
       <c r="L21">
-        <v>0.3928070001631738</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.637904300501532</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4241699126222329</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.046975081911853</v>
+        <v>1.898757446070533</v>
       </c>
       <c r="C22">
-        <v>0.104999952803297</v>
+        <v>0.1953392334716568</v>
       </c>
       <c r="D22">
-        <v>0.6882213528525085</v>
+        <v>0.07781518986557501</v>
       </c>
       <c r="E22">
-        <v>0.1070013404320527</v>
+        <v>0.08276042889737667</v>
       </c>
       <c r="F22">
-        <v>11.44355819022451</v>
+        <v>1.264347237965083</v>
       </c>
       <c r="G22">
-        <v>0.0008028758295274309</v>
+        <v>1.154778948403958</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001425088602394098</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.721597339072801</v>
       </c>
       <c r="K22">
-        <v>1.607227267438759</v>
+        <v>0.8136114305461035</v>
       </c>
       <c r="L22">
-        <v>0.4233697998363795</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.758913768653656</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4547179661870047</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.963519904213058</v>
+        <v>1.829025015739091</v>
       </c>
       <c r="C23">
-        <v>0.1011330749703063</v>
+        <v>0.188964076270608</v>
       </c>
       <c r="D23">
-        <v>0.6674868123897397</v>
+        <v>0.07657057316998106</v>
       </c>
       <c r="E23">
-        <v>0.1035965986272167</v>
+        <v>0.0806612107864737</v>
       </c>
       <c r="F23">
-        <v>11.04521565898381</v>
+        <v>1.236907159518353</v>
       </c>
       <c r="G23">
-        <v>0.0008069994796890689</v>
+        <v>1.131794905465142</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001256145032789924</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7133893197628538</v>
       </c>
       <c r="K23">
-        <v>1.537569708484625</v>
+        <v>0.8043799116131467</v>
       </c>
       <c r="L23">
-        <v>0.4069578765071498</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.693013449895489</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4380944841381762</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.659578751067784</v>
+        <v>1.564111252249688</v>
       </c>
       <c r="C24">
-        <v>0.08716284799321272</v>
+        <v>0.1665726068213473</v>
       </c>
       <c r="D24">
-        <v>0.5909296415921972</v>
+        <v>0.07226000316438785</v>
       </c>
       <c r="E24">
-        <v>0.09107784357923521</v>
+        <v>0.0724858181081558</v>
       </c>
       <c r="F24">
-        <v>9.575647164633693</v>
+        <v>1.128110922174585</v>
       </c>
       <c r="G24">
-        <v>0.0008226562120711003</v>
+        <v>1.038901151702461</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002301559804952724</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6794349068617009</v>
       </c>
       <c r="K24">
-        <v>1.284268723849124</v>
+        <v>0.7643279494052848</v>
       </c>
       <c r="L24">
-        <v>0.3468426117089791</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.447092562663784</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3765752791620116</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.352447112625526</v>
+        <v>1.2804139637677</v>
       </c>
       <c r="C25">
-        <v>0.07315237083421877</v>
+        <v>0.1430124445396217</v>
       </c>
       <c r="D25">
-        <v>0.5115229227564839</v>
+        <v>0.06757828209380534</v>
       </c>
       <c r="E25">
-        <v>0.07822190491003767</v>
+        <v>0.06388754429687893</v>
       </c>
       <c r="F25">
-        <v>8.055362304904747</v>
+        <v>1.01614715396957</v>
       </c>
       <c r="G25">
-        <v>0.0008397644315873905</v>
+        <v>0.9437840188236351</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005758009981847501</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.645625548390143</v>
       </c>
       <c r="K25">
-        <v>1.028819556319235</v>
+        <v>0.7238921317923044</v>
       </c>
       <c r="L25">
-        <v>0.2854819178350283</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.184576846015261</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.312031087576301</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.075553761529136</v>
+        <v>1.051382927420747</v>
       </c>
       <c r="C2">
-        <v>0.1240395786291373</v>
+        <v>0.1338841782588673</v>
       </c>
       <c r="D2">
-        <v>0.06353318263812113</v>
+        <v>0.06679534105700213</v>
       </c>
       <c r="E2">
-        <v>0.05821273897776891</v>
+        <v>0.0511578190974511</v>
       </c>
       <c r="F2">
-        <v>0.9490264581380927</v>
+        <v>0.8052417525534992</v>
       </c>
       <c r="G2">
-        <v>0.8900616106939907</v>
+        <v>0.7174082023967827</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.009221718444288207</v>
+        <v>0.006268108571776843</v>
       </c>
       <c r="J2">
-        <v>0.6292972777767858</v>
+        <v>0.5610314718405647</v>
       </c>
       <c r="K2">
-        <v>0.7058808754133352</v>
+        <v>0.5706186310605119</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2481481821373492</v>
       </c>
       <c r="M2">
-        <v>0.9899534094260503</v>
+        <v>0.1825063774612765</v>
       </c>
       <c r="N2">
-        <v>0.265113616921937</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.03023284391702</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.274146268817006</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9354410533791224</v>
+        <v>0.916068406627403</v>
       </c>
       <c r="C3">
-        <v>0.1124856826683569</v>
+        <v>0.1178516880651586</v>
       </c>
       <c r="D3">
-        <v>0.06109885820131566</v>
+        <v>0.06265434366677169</v>
       </c>
       <c r="E3">
-        <v>0.05416282919938098</v>
+        <v>0.04782792371385369</v>
       </c>
       <c r="F3">
-        <v>0.8990054942023562</v>
+        <v>0.7710131761903511</v>
       </c>
       <c r="G3">
-        <v>0.848273068491963</v>
+        <v>0.6955275920572888</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01296378498556772</v>
+        <v>0.008876520948474464</v>
       </c>
       <c r="J3">
-        <v>0.6156653293671326</v>
+        <v>0.5503512022349639</v>
       </c>
       <c r="K3">
-        <v>0.6891646550731707</v>
+        <v>0.5655775080446901</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2508533676125353</v>
       </c>
       <c r="M3">
-        <v>0.8604730906850477</v>
+        <v>0.1773461055555927</v>
       </c>
       <c r="N3">
-        <v>0.2343538627160768</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8950937052099448</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2421971736917783</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8494834780703968</v>
+        <v>0.8328630705288731</v>
       </c>
       <c r="C4">
-        <v>0.1054777540892005</v>
+        <v>0.1081853103029715</v>
       </c>
       <c r="D4">
-        <v>0.05959982537053321</v>
+        <v>0.06013081791020625</v>
       </c>
       <c r="E4">
-        <v>0.05170476311517191</v>
+        <v>0.04579962256517511</v>
       </c>
       <c r="F4">
-        <v>0.8690061415188381</v>
+        <v>0.7504587233318389</v>
       </c>
       <c r="G4">
-        <v>0.8232414713695704</v>
+        <v>0.6826935892571839</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01571585191884584</v>
+        <v>0.01082664945741518</v>
       </c>
       <c r="J4">
-        <v>0.6077053465763953</v>
+        <v>0.5438245846458756</v>
       </c>
       <c r="K4">
-        <v>0.679220276012849</v>
+        <v>0.5626383836254583</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2524009837925618</v>
       </c>
       <c r="M4">
-        <v>0.7812689347234141</v>
+        <v>0.1749432683145464</v>
       </c>
       <c r="N4">
-        <v>0.2157614170315867</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8123625209779277</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2228733767223474</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8141707070315931</v>
+        <v>0.7986492798202107</v>
       </c>
       <c r="C5">
-        <v>0.1028400862678041</v>
+        <v>0.1045176736776057</v>
       </c>
       <c r="D5">
-        <v>0.05904265122880403</v>
+        <v>0.05917157033432829</v>
       </c>
       <c r="E5">
-        <v>0.05065829148102807</v>
+        <v>0.04493226022258412</v>
       </c>
       <c r="F5">
-        <v>0.8557543466533986</v>
+        <v>0.7411771510650809</v>
       </c>
       <c r="G5">
-        <v>0.8118623271528804</v>
+        <v>0.6765136142067405</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01703979845981696</v>
+        <v>0.01180750324673774</v>
       </c>
       <c r="J5">
-        <v>0.6038795897348876</v>
+        <v>0.5405865637069951</v>
       </c>
       <c r="K5">
-        <v>0.6742211429914988</v>
+        <v>0.5606549863442147</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2526322299910149</v>
       </c>
       <c r="M5">
-        <v>0.7493603219495526</v>
+        <v>0.173908926079946</v>
       </c>
       <c r="N5">
-        <v>0.2083216037089812</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7789871787651066</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2151311983221262</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8079498985738383</v>
+        <v>0.792636495796728</v>
       </c>
       <c r="C6">
-        <v>0.1026488522101801</v>
+        <v>0.104194742214176</v>
       </c>
       <c r="D6">
-        <v>0.05901782788710719</v>
+        <v>0.05909221015081911</v>
       </c>
       <c r="E6">
-        <v>0.05042194735199246</v>
+        <v>0.04473397116015931</v>
       </c>
       <c r="F6">
-        <v>0.8521043880100265</v>
+        <v>0.7384053756811397</v>
       </c>
       <c r="G6">
-        <v>0.8083630110407256</v>
+        <v>0.6741647328637583</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01738711796616954</v>
+        <v>0.01210896803450456</v>
       </c>
       <c r="J6">
-        <v>0.60241919720103</v>
+        <v>0.5393352418547579</v>
       </c>
       <c r="K6">
-        <v>0.6721473395744439</v>
+        <v>0.5593250851639411</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2522173661505001</v>
       </c>
       <c r="M6">
-        <v>0.7444409692684815</v>
+        <v>0.1734487414587491</v>
       </c>
       <c r="N6">
-        <v>0.2071741229274835</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7738008076151743</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2139279833664887</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.848025836400609</v>
+        <v>0.8317303581234512</v>
       </c>
       <c r="C7">
-        <v>0.1061149036914912</v>
+        <v>0.1086661044171109</v>
       </c>
       <c r="D7">
-        <v>0.05977889297232153</v>
+        <v>0.0604732135711572</v>
       </c>
       <c r="E7">
-        <v>0.05151835358791423</v>
+        <v>0.04567764965248244</v>
       </c>
       <c r="F7">
-        <v>0.8648394211723129</v>
+        <v>0.7449605490962341</v>
       </c>
       <c r="G7">
-        <v>0.8186654751833942</v>
+        <v>0.6815384469070978</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01604464196303645</v>
+        <v>0.01119551714373035</v>
       </c>
       <c r="J7">
-        <v>0.6053854570132557</v>
+        <v>0.5357343453162144</v>
       </c>
       <c r="K7">
-        <v>0.6757436821725946</v>
+        <v>0.5586309105615967</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2506453933529578</v>
       </c>
       <c r="M7">
-        <v>0.7818660894314178</v>
+        <v>0.1737040294241794</v>
       </c>
       <c r="N7">
-        <v>0.215890125520886</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8125469601935436</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2229201242233358</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.025898624464588</v>
+        <v>1.004303325030946</v>
       </c>
       <c r="C8">
-        <v>0.1209378021073348</v>
+        <v>0.1285295090589216</v>
       </c>
       <c r="D8">
-        <v>0.06294903550370634</v>
+        <v>0.06613458560597962</v>
       </c>
       <c r="E8">
-        <v>0.05658105231445987</v>
+        <v>0.04993867113610229</v>
       </c>
       <c r="F8">
-        <v>0.926346209567896</v>
+        <v>0.7823159164083222</v>
       </c>
       <c r="G8">
-        <v>0.8696657123170866</v>
+        <v>0.7135397680209223</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01078052053984813</v>
+        <v>0.007531441087943236</v>
       </c>
       <c r="J8">
-        <v>0.6215184596893266</v>
+        <v>0.5348887978329486</v>
       </c>
       <c r="K8">
-        <v>0.6955470719132464</v>
+        <v>0.5612041818911067</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2459314929299303</v>
       </c>
       <c r="M8">
-        <v>0.9466047240830164</v>
+        <v>0.1780087207956562</v>
       </c>
       <c r="N8">
-        <v>0.2547467999173989</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9837480524831221</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2631367959052113</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.377608244342582</v>
+        <v>1.342932376666312</v>
       </c>
       <c r="C9">
-        <v>0.1496280507058003</v>
+        <v>0.1685489512154703</v>
       </c>
       <c r="D9">
-        <v>0.06879717301438859</v>
+        <v>0.0765005323918686</v>
       </c>
       <c r="E9">
-        <v>0.06707016094093277</v>
+        <v>0.05856676474114408</v>
       </c>
       <c r="F9">
-        <v>1.060363732504356</v>
+        <v>0.8729163140213814</v>
       </c>
       <c r="G9">
-        <v>0.9831305389073464</v>
+        <v>0.7787021371077856</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.003837015804588617</v>
+        <v>0.002721946177974388</v>
       </c>
       <c r="J9">
-        <v>0.6606968509669855</v>
+        <v>0.5586619462219602</v>
       </c>
       <c r="K9">
-        <v>0.7432453994653443</v>
+        <v>0.5769782095271125</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2397708358126245</v>
       </c>
       <c r="M9">
-        <v>1.270839547743293</v>
+        <v>0.1956777633773399</v>
       </c>
       <c r="N9">
-        <v>0.3331449787442722</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.321423382534789</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3444231690572508</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.63697654946003</v>
+        <v>1.592831847098807</v>
       </c>
       <c r="C10">
-        <v>0.1718152657982444</v>
+        <v>0.1980754389398953</v>
       </c>
       <c r="D10">
-        <v>0.07320336269975769</v>
+        <v>0.08529187170884711</v>
       </c>
       <c r="E10">
-        <v>0.07487907993440501</v>
+        <v>0.06518200051602108</v>
       </c>
       <c r="F10">
-        <v>1.161574238490473</v>
+        <v>0.9296184777662688</v>
       </c>
       <c r="G10">
-        <v>1.06854130259461</v>
+        <v>0.8444019601891455</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001556069312929509</v>
+        <v>0.001397751386208235</v>
       </c>
       <c r="J10">
-        <v>0.6908808518390401</v>
+        <v>0.5422412684600886</v>
       </c>
       <c r="K10">
-        <v>0.7786848426704225</v>
+        <v>0.5814948779713802</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2318548858489962</v>
       </c>
       <c r="M10">
-        <v>1.512441247911198</v>
+        <v>0.209373397383402</v>
       </c>
       <c r="N10">
-        <v>0.3928626455234223</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.570305887161453</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4057994168987022</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.753754294745306</v>
+        <v>1.707554335457246</v>
       </c>
       <c r="C11">
-        <v>0.1833021340764702</v>
+        <v>0.2104687605582853</v>
       </c>
       <c r="D11">
-        <v>0.0755604659019653</v>
+        <v>0.09145632432793604</v>
       </c>
       <c r="E11">
-        <v>0.07819396838374715</v>
+        <v>0.06840101596495529</v>
       </c>
       <c r="F11">
-        <v>1.202343001160642</v>
+        <v>0.931042356474407</v>
       </c>
       <c r="G11">
-        <v>1.101316616012227</v>
+        <v>0.8977968165745693</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001589290353492423</v>
+        <v>0.001782473803481288</v>
       </c>
       <c r="J11">
-        <v>0.7015972282270866</v>
+        <v>0.4790330499306634</v>
       </c>
       <c r="K11">
-        <v>0.7898418842823389</v>
+        <v>0.5678259072746243</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2227402022272607</v>
       </c>
       <c r="M11">
-        <v>1.62492475229439</v>
+        <v>0.2098819466579016</v>
       </c>
       <c r="N11">
-        <v>0.4209382159104109</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.682180463971974</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4338650374329376</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.798979056380631</v>
+        <v>1.752185033932733</v>
       </c>
       <c r="C12">
-        <v>0.1870713562889392</v>
+        <v>0.214137437913152</v>
       </c>
       <c r="D12">
-        <v>0.07627313678121794</v>
+        <v>0.09381689183938846</v>
       </c>
       <c r="E12">
-        <v>0.07960948078648045</v>
+        <v>0.06981253649572139</v>
       </c>
       <c r="F12">
-        <v>1.22144395304899</v>
+        <v>0.9320312381563127</v>
       </c>
       <c r="G12">
-        <v>1.117740641563927</v>
+        <v>0.9253390770629295</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001485484392006242</v>
+        <v>0.001739888449185933</v>
       </c>
       <c r="J12">
-        <v>0.7076993630763297</v>
+        <v>0.4520708273910259</v>
       </c>
       <c r="K12">
-        <v>0.7970837549325509</v>
+        <v>0.5634431739067267</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2196204704902556</v>
       </c>
       <c r="M12">
-        <v>1.666760551031786</v>
+        <v>0.2104227064186688</v>
       </c>
       <c r="N12">
-        <v>0.431455571959134</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.723328213546637</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4442914319677698</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.789419559705209</v>
+        <v>1.742723661991619</v>
       </c>
       <c r="C13">
-        <v>0.1861325318556624</v>
+        <v>0.2132141330710198</v>
       </c>
       <c r="D13">
-        <v>0.07608261126492266</v>
+        <v>0.09324892410118224</v>
       </c>
       <c r="E13">
-        <v>0.07933495696862991</v>
+        <v>0.06953188369136498</v>
       </c>
       <c r="F13">
-        <v>1.218017684509888</v>
+        <v>0.9324756856964456</v>
       </c>
       <c r="G13">
-        <v>1.114965220901695</v>
+        <v>0.9198487151171832</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001457175330558336</v>
+        <v>0.001690837330951211</v>
       </c>
       <c r="J13">
-        <v>0.7067709811765042</v>
+        <v>0.4582821090436084</v>
       </c>
       <c r="K13">
-        <v>0.7961085029954091</v>
+        <v>0.5648774542486521</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2204582703834497</v>
       </c>
       <c r="M13">
-        <v>1.657561195976683</v>
+        <v>0.2105052503608746</v>
       </c>
       <c r="N13">
-        <v>0.4291463780292162</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.714309866752359</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.4420090543078459</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.757551389240518</v>
+        <v>1.711289650815246</v>
       </c>
       <c r="C14">
-        <v>0.1835582384258601</v>
+        <v>0.2107141589718964</v>
       </c>
       <c r="D14">
-        <v>0.07560338699776281</v>
+        <v>0.09162520534541585</v>
       </c>
       <c r="E14">
-        <v>0.0783232915452281</v>
+        <v>0.06852697774859351</v>
       </c>
       <c r="F14">
-        <v>1.204206188814979</v>
+        <v>0.9314068841006815</v>
       </c>
       <c r="G14">
-        <v>1.102991155512782</v>
+        <v>0.9002444192961718</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.00155871498319371</v>
+        <v>0.001753730124832487</v>
       </c>
       <c r="J14">
-        <v>0.7022630434771884</v>
+        <v>0.4769994598717773</v>
       </c>
       <c r="K14">
-        <v>0.7906857945559267</v>
+        <v>0.5676766093604471</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2225554670160967</v>
       </c>
       <c r="M14">
-        <v>1.628286051510486</v>
+        <v>0.2100116376194663</v>
       </c>
       <c r="N14">
-        <v>0.4217846592180337</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.68549963579855</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.4347071681660566</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.737681140777056</v>
+        <v>1.691755128795222</v>
       </c>
       <c r="C15">
-        <v>0.1822331943598243</v>
+        <v>0.209434325377245</v>
       </c>
       <c r="D15">
-        <v>0.07538267569712076</v>
+        <v>0.09075667087661543</v>
       </c>
       <c r="E15">
-        <v>0.07764432018069201</v>
+        <v>0.06786830803044452</v>
       </c>
       <c r="F15">
-        <v>1.194402239863678</v>
+        <v>0.9293465051090806</v>
       </c>
       <c r="G15">
-        <v>1.094165808886871</v>
+        <v>0.887561551358516</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001730165743547118</v>
+        <v>0.001915581891420715</v>
       </c>
       <c r="J15">
-        <v>0.6987466335512238</v>
+        <v>0.4874289935139302</v>
       </c>
       <c r="K15">
-        <v>0.7862181735867821</v>
+        <v>0.5683542225077218</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2234865407170084</v>
       </c>
       <c r="M15">
-        <v>1.610733205662314</v>
+        <v>0.2092943440947579</v>
       </c>
       <c r="N15">
-        <v>0.417365905330314</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.668145466066761</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.4303066090223382</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.626317239422406</v>
+        <v>1.582623749679158</v>
       </c>
       <c r="C16">
-        <v>0.173133932370277</v>
+        <v>0.1996703777924722</v>
       </c>
       <c r="D16">
-        <v>0.07365462908314413</v>
+        <v>0.08567100061364386</v>
       </c>
       <c r="E16">
-        <v>0.07415530826808947</v>
+        <v>0.06454674303671482</v>
       </c>
       <c r="F16">
-        <v>1.147375537888934</v>
+        <v>0.9198240558318815</v>
       </c>
       <c r="G16">
-        <v>1.053636551225736</v>
+        <v>0.8310972607922622</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.00233217986481371</v>
+        <v>0.002286273185802656</v>
       </c>
       <c r="J16">
-        <v>0.6837041111609068</v>
+        <v>0.5407583020066369</v>
       </c>
       <c r="K16">
-        <v>0.7681877334331588</v>
+        <v>0.5748446066283748</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2297798358792278</v>
       </c>
       <c r="M16">
-        <v>1.508134504319344</v>
+        <v>0.2063541378814158</v>
       </c>
       <c r="N16">
-        <v>0.3917061818139302</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.565810425192012</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.4045874164433343</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.558161203643635</v>
+        <v>1.516280077749542</v>
       </c>
       <c r="C17">
-        <v>0.1676029439686459</v>
+        <v>0.1931592234517012</v>
       </c>
       <c r="D17">
-        <v>0.07259322367204391</v>
+        <v>0.08294468925322462</v>
       </c>
       <c r="E17">
-        <v>0.0720306432140454</v>
+        <v>0.06261405336317338</v>
       </c>
       <c r="F17">
-        <v>1.118911202745167</v>
+        <v>0.9099329190478471</v>
       </c>
       <c r="G17">
-        <v>1.029133211936227</v>
+        <v>0.8032336452616136</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002885480855830735</v>
+        <v>0.002649032265591877</v>
       </c>
       <c r="J17">
-        <v>0.6746731265651249</v>
+        <v>0.5633342436090629</v>
       </c>
       <c r="K17">
-        <v>0.7573150561204898</v>
+        <v>0.5763810884423677</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2328088219181268</v>
       </c>
       <c r="M17">
-        <v>1.445418132902887</v>
+        <v>0.2036936623107586</v>
       </c>
       <c r="N17">
-        <v>0.3761047176821819</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.502403274626232</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.3887833885379024</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.519927015146379</v>
+        <v>1.479158142197463</v>
       </c>
       <c r="C18">
-        <v>0.1638114039932361</v>
+        <v>0.188482675912141</v>
       </c>
       <c r="D18">
-        <v>0.07179902795159165</v>
+        <v>0.08128658984370674</v>
       </c>
       <c r="E18">
-        <v>0.07096740923512712</v>
+        <v>0.06166899261182834</v>
       </c>
       <c r="F18">
-        <v>1.106164216303924</v>
+        <v>0.90566841342158</v>
       </c>
       <c r="G18">
-        <v>1.019023893084054</v>
+        <v>0.792574360848775</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.002995097034285799</v>
+        <v>0.002584780657218566</v>
       </c>
       <c r="J18">
-        <v>0.6715090730786812</v>
+        <v>0.5737516352281204</v>
       </c>
       <c r="K18">
-        <v>0.7540775930902655</v>
+        <v>0.5786397032581121</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2350561965609792</v>
       </c>
       <c r="M18">
-        <v>1.40850445308709</v>
+        <v>0.2027453595656077</v>
       </c>
       <c r="N18">
-        <v>0.36697765101529</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.464843605943969</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3794954496605243</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.506285521218246</v>
+        <v>1.465983097547053</v>
       </c>
       <c r="C19">
-        <v>0.1630141838040089</v>
+        <v>0.1874426615834608</v>
       </c>
       <c r="D19">
-        <v>0.07167122138081794</v>
+        <v>0.0809177578195559</v>
       </c>
       <c r="E19">
-        <v>0.07049005424517318</v>
+        <v>0.06125423259798168</v>
       </c>
       <c r="F19">
-        <v>1.099177919930369</v>
+        <v>0.9017725165145265</v>
       </c>
       <c r="G19">
-        <v>1.012644731451417</v>
+        <v>0.7869514291318183</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.003250756319712167</v>
+        <v>0.002815974210450101</v>
       </c>
       <c r="J19">
-        <v>0.6689366186141825</v>
+        <v>0.5753282765041945</v>
       </c>
       <c r="K19">
-        <v>0.7507160391995313</v>
+        <v>0.5775186249119102</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.235132309429499</v>
       </c>
       <c r="M19">
-        <v>1.396725662478275</v>
+        <v>0.2017018921053584</v>
       </c>
       <c r="N19">
-        <v>0.3640514880325298</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.452759058678481</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3764953842042758</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.565482685831711</v>
+        <v>1.523385969808345</v>
       </c>
       <c r="C20">
-        <v>0.1681405224566959</v>
+        <v>0.1938131999872894</v>
       </c>
       <c r="D20">
-        <v>0.07269182665476137</v>
+        <v>0.08320342110356904</v>
       </c>
       <c r="E20">
-        <v>0.07226827966089289</v>
+        <v>0.06282626216430032</v>
       </c>
       <c r="F20">
-        <v>1.122201044262411</v>
+        <v>0.9113601484046114</v>
       </c>
       <c r="G20">
-        <v>1.032031183812805</v>
+        <v>0.8062031040364275</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.00279819333065312</v>
+        <v>0.002579783307054662</v>
       </c>
       <c r="J20">
-        <v>0.6757809997662605</v>
+        <v>0.5614748624717691</v>
       </c>
       <c r="K20">
-        <v>0.758696907740493</v>
+        <v>0.5764847105822639</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2325819528004338</v>
       </c>
       <c r="M20">
-        <v>1.452014402220783</v>
+        <v>0.2040763835044466</v>
       </c>
       <c r="N20">
-        <v>0.3777445435617892</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.509108062439338</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3904518080907451</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.765873708281276</v>
+        <v>1.720432336823364</v>
       </c>
       <c r="C21">
-        <v>0.1850176165091</v>
+        <v>0.211316116800802</v>
       </c>
       <c r="D21">
-        <v>0.07595180586419303</v>
+        <v>0.09296412826224554</v>
       </c>
       <c r="E21">
-        <v>0.07844818152053179</v>
+        <v>0.06882319159931782</v>
       </c>
       <c r="F21">
-        <v>1.204353588676014</v>
+        <v>0.9216786678220927</v>
       </c>
       <c r="G21">
-        <v>1.102188094198127</v>
+        <v>0.9124395271586678</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001796627418315211</v>
+        <v>0.002058875685742478</v>
       </c>
       <c r="J21">
-        <v>0.7013965614154642</v>
+        <v>0.4527485574317751</v>
       </c>
       <c r="K21">
-        <v>0.7889802164794659</v>
+        <v>0.560301315707548</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2196842318610841</v>
       </c>
       <c r="M21">
-        <v>1.637904300501532</v>
+        <v>0.2074855610029864</v>
       </c>
       <c r="N21">
-        <v>0.4241699126222329</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.693655160515107</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4368113372809717</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.898757446070533</v>
+        <v>1.851164083582063</v>
       </c>
       <c r="C22">
-        <v>0.1953392334716568</v>
+        <v>0.2215690308367613</v>
       </c>
       <c r="D22">
-        <v>0.07781518986557501</v>
+        <v>0.09947689097749901</v>
       </c>
       <c r="E22">
-        <v>0.08276042889737667</v>
+        <v>0.07305850863108887</v>
       </c>
       <c r="F22">
-        <v>1.264347237965083</v>
+        <v>0.930293524182332</v>
       </c>
       <c r="G22">
-        <v>1.154778948403958</v>
+        <v>0.9948656892117356</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001425088602394098</v>
+        <v>0.001744633941380691</v>
       </c>
       <c r="J22">
-        <v>0.721597339072801</v>
+        <v>0.3879298743312631</v>
       </c>
       <c r="K22">
-        <v>0.8136114305461035</v>
+        <v>0.5515802923433739</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2121079178884706</v>
       </c>
       <c r="M22">
-        <v>1.758913768653656</v>
+        <v>0.2107439552701749</v>
       </c>
       <c r="N22">
-        <v>0.4547179661870047</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.813026077850878</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4671647188322794</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.829025015739091</v>
+        <v>1.781848990566857</v>
       </c>
       <c r="C23">
-        <v>0.188964076270608</v>
+        <v>0.2157832601331222</v>
       </c>
       <c r="D23">
-        <v>0.07657057316998106</v>
+        <v>0.09520384233830015</v>
       </c>
       <c r="E23">
-        <v>0.0806612107864737</v>
+        <v>0.0708584102960792</v>
       </c>
       <c r="F23">
-        <v>1.236907159518353</v>
+        <v>0.9344216746572727</v>
       </c>
       <c r="G23">
-        <v>1.131794905465142</v>
+        <v>0.947241562846429</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001256145032789924</v>
+        <v>0.001501950441262778</v>
       </c>
       <c r="J23">
-        <v>0.7133893197628538</v>
+        <v>0.4347758589835564</v>
       </c>
       <c r="K23">
-        <v>0.8043799116131467</v>
+        <v>0.5620906713546319</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2181229973588472</v>
       </c>
       <c r="M23">
-        <v>1.693013449895489</v>
+        <v>0.2113893342245206</v>
       </c>
       <c r="N23">
-        <v>0.4380944841381762</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.749035173738889</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4508541936977224</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.564111252249688</v>
+        <v>1.521933647672057</v>
       </c>
       <c r="C24">
-        <v>0.1665726068213473</v>
+        <v>0.1919446606967767</v>
       </c>
       <c r="D24">
-        <v>0.07226000316438785</v>
+        <v>0.0826137307766146</v>
       </c>
       <c r="E24">
-        <v>0.0724858181081558</v>
+        <v>0.06300701876103432</v>
       </c>
       <c r="F24">
-        <v>1.128110922174585</v>
+        <v>0.9167695304386996</v>
       </c>
       <c r="G24">
-        <v>1.038901151702461</v>
+        <v>0.8114296088981945</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.002301559804952724</v>
+        <v>0.001979323146949596</v>
       </c>
       <c r="J24">
-        <v>0.6794349068617009</v>
+        <v>0.5656045218880195</v>
       </c>
       <c r="K24">
-        <v>0.7643279494052848</v>
+        <v>0.5811939767152694</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2343972501631342</v>
       </c>
       <c r="M24">
-        <v>1.447092562663784</v>
+        <v>0.2057634717467742</v>
       </c>
       <c r="N24">
-        <v>0.3765752791620116</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.504240936428545</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3892971457135985</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.2804139637677</v>
+        <v>1.249313620060462</v>
       </c>
       <c r="C25">
-        <v>0.1430124445396217</v>
+        <v>0.1593838982055189</v>
       </c>
       <c r="D25">
-        <v>0.06757828209380534</v>
+        <v>0.07390334288120215</v>
       </c>
       <c r="E25">
-        <v>0.06388754429687893</v>
+        <v>0.05588914587718108</v>
       </c>
       <c r="F25">
-        <v>1.01614715396957</v>
+        <v>0.8447555648579623</v>
       </c>
       <c r="G25">
-        <v>0.9437840188236351</v>
+        <v>0.7502692168159228</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.005758009981847501</v>
+        <v>0.004236764350124211</v>
       </c>
       <c r="J25">
-        <v>0.645625548390143</v>
+        <v>0.5572928935624049</v>
       </c>
       <c r="K25">
-        <v>0.7238921317923044</v>
+        <v>0.5695331370719785</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2403739773056337</v>
       </c>
       <c r="M25">
-        <v>1.184576846015261</v>
+        <v>0.1891153505946228</v>
       </c>
       <c r="N25">
-        <v>0.312031087576301</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.231986338940885</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3226023541817682</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
